--- a/va_facility_data_2025-02-20/Burlington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Burlington%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Burlington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Burlington%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd7c5ce1b2d144c67b50e8500e7feb426"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R77abe18e529c46d0a3a34512fd078786"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R52a4397e9650410ca51dec519dd15769"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8fac4b5b1bc048e3812bb36c61182b0b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R02cde277c070492facfacb763571c7e1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0f5ee53a5d344e48a77398c40b954b82"/>
   </x:sheets>
 </x:workbook>
 </file>
